--- a/CreateAccountsTemplate.xlsx
+++ b/CreateAccountsTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBB\IOCBackend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\Facultate\IOC35Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7F7F1E-A2A2-49BB-B38A-01B325D28BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C5DAFE-7B43-48D9-8125-6145944F40B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nr.Crt</t>
   </si>
@@ -51,61 +51,22 @@
     <t>Baba</t>
   </si>
   <si>
-    <t>aba@mail.com</t>
-  </si>
-  <si>
-    <t>parola</t>
-  </si>
-  <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t>Oliwier</t>
-  </si>
-  <si>
-    <t>Todd</t>
-  </si>
-  <si>
-    <t>Rio</t>
-  </si>
-  <si>
-    <t>Davenport</t>
-  </si>
-  <si>
-    <t>Annalise</t>
-  </si>
-  <si>
-    <t>Elliott</t>
-  </si>
-  <si>
-    <t>Husna</t>
-  </si>
-  <si>
-    <t>Strong</t>
-  </si>
-  <si>
-    <t>Marianne</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Abigail</t>
-  </si>
-  <si>
-    <t>Conway</t>
-  </si>
-  <si>
-    <t>Sumaya</t>
-  </si>
-  <si>
-    <t>Hubbard</t>
-  </si>
-  <si>
-    <t>Aamina</t>
-  </si>
-  <si>
-    <t>Richard</t>
+    <t>aba2@mail.com</t>
+  </si>
+  <si>
+    <t>aba3@mail.com</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>coordonator</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Tod</t>
   </si>
 </sst>
 </file>
@@ -434,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,9 +406,9 @@
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -472,7 +433,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -483,8 +444,8 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2">
+        <v>123</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -492,177 +453,30 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{1A4224BF-628B-4C69-A0FA-0BD48D54B6D8}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{46156213-BC02-4F10-A0A9-D553371E2411}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{C5D43655-0929-42D5-A792-EF5E505B0C86}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{CDF01E76-B38E-4B2E-B2BB-0451D978B42E}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{68813668-256D-45C5-9A67-2279F6134802}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{0F5E98E3-FFBA-4BAC-A7B2-8A5C6C075E49}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{1494F1EC-EE32-4F41-8119-538678713B39}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{AD8008F6-946B-4F42-9910-CBC454D77EA1}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{9589DDF5-B1DB-4EDA-B07D-4DA002C2B118}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/CreateAccountsTemplate.xlsx
+++ b/CreateAccountsTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\Facultate\IOC35Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C5DAFE-7B43-48D9-8125-6145944F40B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1590362B-EAB2-45DF-8EA3-B7B76EE71996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="4440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Baba</t>
   </si>
   <si>
-    <t>aba2@mail.com</t>
-  </si>
-  <si>
-    <t>aba3@mail.com</t>
-  </si>
-  <si>
     <t>student</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>Tod</t>
+  </si>
+  <si>
+    <t>andrei@mail.com</t>
+  </si>
+  <si>
+    <t>olivia@mail.com</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,13 +442,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -456,19 +456,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E3">
         <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
